--- a/spec/ASW/Veh/Driver/VehMot/VMD/AccPed/AccPed_DrvDemDes/AccPed_DrvDemDes.xlsx
+++ b/spec/ASW/Veh/Driver/VehMot/VMD/AccPed/AccPed_DrvDemDes/AccPed_DrvDemDes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\VehMot\VMD\AccPed\AccPed_DrvDemDes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD757366-DC7D-4C1B-9B6F-631071432EE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,522 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_trqWhlMinEng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum wheel torque from the engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration pedal sensor 1 value after fault handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlbDa_vX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitudinal vehicle speed (X-direction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoME_trqDesComp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application parameter for torque demand of mechanical co-ordinator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrvDem_swtDrvNGovActv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch to activate DrvDem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brk_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brake switch state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBrk_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine Brake switch status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_trqWhlMinEngBrk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum possible drag torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqLimMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum wheel torque in case of accelerator pedal error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rTrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total drive train ratio of engine - wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_stMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch of the mastershift operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_stTraRevGear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status if reverse gear is selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDesAct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver torque raw of propulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehMot_stPrpAccPed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status of propulsion demand by driver demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqComp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compensation torque of accelerator pedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_stBrkDes_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw engine brake request before prioritisation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDifBrk_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completely possible engine brake torque Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rBrk50_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage of engine brake torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDesPull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application parameter for driver demand in pull mode for desired value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDesOvrRun_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver command torque overrun part setpoint path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDesBefComp_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver demand torque before compensation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDesComp_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEngRev_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 500 1000 1500 2000 2500 3000 3500 4000 4500 5000 5100 5200 5300 5400 5500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average engine speed of one cylinder segment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEngRev_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 10 20 30 40 50 60 70 80 90 100 101 102 103 104 105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardized accelerator pedal position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEngRev_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0;10 15 20 25 30 35 40 45 50 55 60 60 60 60 60 60;20 25 30 35 40 45 50 55 60 65 70 70 70 70 70 70;30 35 40 45 50 55 60 65 70 75 80 80 80 80 80 80;40 45 50 55 60 65 70 75 80 85 90 90 90 90 90 90;50 55 60 65 70 75 80 85 90 95 100 100 100 100 100 100;60 65 70 75 80 85 90 95 100 105 110 110 110 110 110 110;70 75 80 85 90 95 100 105 110 115 120 120 120 120 120 120;80 85 90 95 100 105 110 115 120 125 130 130 130 130 130 130;90 95 100 105 110 115 120 125 130 135 140 140 140 140 140 140;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150;100 105 110 115 120 125 130 135 140 145 150 150 150 150 150 150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner torque for engaged reverse gear calculated from the accelerator pedal angle and the engine speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEng_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[600 800 1000 1200 1400 1600 1700 1800 1900 2000 2200 2400 2600 2800 3000 3200]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEng_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0  5  10  15  20  25  30  40  50  60  70  80  85  90  95  100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoFDrDem_trqEng_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+17.5000000000000000 7.4000000000000004 0.8000000000000000 0.8000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+36.5000000000000000 19.8000000000000010 9.3000000000000007 1.6000000000000001 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+58.8999999999999990 37.7999999999999970 23.5000000000000000 14.6999999999999990 4.5000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+85.5999999999999940 62.5000000000000000 45.8999999999999990 30.5000000000000000 17.8999999999999990 11.4000000000000000 6.9000000000000004 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+117.4000000000000100 94.5000000000000000 77.5999999999999940 60.3999999999999990 44.2000000000000030 35.0000000000000000 25.0000000000000000 14.4000000000000000 4.5000000000000000 4.5000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+147.9000000000000100 125.0000000000000000 108.2000000000000000 91.5999999999999940 73.7999999999999970 60.8999999999999990 49.8999999999999990 36.3999999999999990 27.0000000000000000 19.0000000000000000 8.5000000000000000 2.2999999999999998 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+187.0000000000000000 165.5999999999999900 148.0999999999999900 129.8000000000000100 111.0000000000000000 98.0999999999999940 87.7000000000000030 70.7999999999999970 54.7999999999999970 44.2999999999999970 23.8000000000000010 6.5999999999999996 0.0000000000000000 0.0000000000000000 0.0000000000000000 0.0000000000000000;
+215.3000000000000100 201.0999999999999900 188.9000000000000100 173.5000000000000000 160.3000000000000100 147.5999999999999900 134.6999999999999900 123.5000000000000000 104.8000000000000000 89.9000000000000060 62.1000000000000010 32.8999999999999990 15.5000000000000000 4.2999999999999998 1.2000000000000000 0.0000000000000000;
+226.1999999999999900 222.1999999999999900 216.3000000000000100 207.4000000000000100 196.0000000000000000 188.9000000000000100 181.4000000000000100 170.0999999999999900 158.0999999999999900 141.5999999999999900 112.7000000000000000 82.0000000000000000 56.3999999999999990 35.3999999999999990 19.5000000000000000 0.0000000000000000;
+237.0000000000000000 236.0999999999999900 236.0999999999999900 236.0999999999999900 229.8000000000000100 226.1999999999999900 221.1999999999999900 209.4000000000000100 203.5999999999999900 192.1999999999999900 168.1999999999999900 139.5000000000000000 114.3000000000000000 86.7999999999999970 58.0000000000000000 0.0000000000000000;
+244.0000000000000000 244.0000000000000000 244.9000000000000100 244.0000000000000000 244.0000000000000000 243.1999999999999900 243.1999999999999900 238.4000000000000100 231.5999999999999900 228.1999999999999900 209.6999999999999900 184.0000000000000000 160.8000000000000100 133.9000000000000100 89.0000000000000000 0.0000000000000000;
+255.8000000000000100 255.8000000000000100 256.3999999999999800 255.8000000000000100 255.8000000000000100 255.1999999999999900 255.1999999999999900 251.5999999999999900 246.3000000000000100 243.8000000000000100 228.4000000000000100 206.8000000000000100 186.8000000000000100 163.3000000000000100 112.0000000000000000 0.0000000000000000;
+267.6000000000000200 267.6000000000000200 268.0000000000000000 267.6000000000000200 267.6000000000000200 267.1999999999999900 267.1999999999999900 264.8000000000000100 261.1000000000000200 259.3999999999999800 247.1999999999999900 229.6999999999999900 212.9000000000000100 192.8000000000000100 135.0999999999999900 0.0000000000000000;
+279.3000000000000100 279.3000000000000100 279.5000000000000000 279.3000000000000100 279.3000000000000100 279.1000000000000200 279.1000000000000200 277.8999999999999800 275.8000000000000100 275.0000000000000000 265.8999999999999800 252.4000000000000100 238.9000000000000100 222.1999999999999900 158.0999999999999900 0.0000000000000000;
+291.1000000000000200 291.1000000000000200 291.1000000000000200 291.1000000000000200 291.1000000000000200 291.1000000000000200 291.1000000000000200 291.1000000000000200 290.6000000000000200 290.6000000000000200 284.6999999999999900 275.3000000000000100 265.0000000000000000 251.6999999999999900 181.1999999999999900 0.0000000000000000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner torque for disengaged reverse gear calculated from the accelerator pedal angle and the engine speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqPrp_MAPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 25 50 75 100 125 150 175 200 225 250 251 252 253 254 255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitudinal vehicle speed (X-direction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqPrp_MAPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqPrp_MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 10 20 30 40 50 60 70 80 90 100 100 100 100 100 100;0 15 25 35 45 55 65 75 85 95 105 105 105 105 105 105;0 20 30 40 50 60 70 80 90 100 110 110 110 110 110 110;0 25 35 45 55 65 75 85 95 105 115 115 115 115 115 115;0 30 40 50 60 70 80 90 100 110 120 120 120 120 120 120;0 35 45 55 65 75 85 95 105 115 125 125 125 125 125 125;0 40 50 60 70 80 90 100 110 120 130 130 130 130 130 130;0 45 55 65 75 85 95 105 115 125 135 135 135 135 135 135;0 50 60 70 80 90 100 110 120 130 140 140 140 140 140 140;0 55 65 75 85 95 105 115 125 135 145 145 145 145 145 145;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150;0 60 70 80 90 100 110 120 130 140 150 150 150 150 150 150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner torque in mastershift operation calculated from the accelerator pedal angle and the vehicle speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_facCompTot_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_trqDemThres_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold value of driver demand torque for status driver demand active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_swtBrkPrio_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed/EngBrk priority: (0:EngBrk wins, 1: pressed AccPed wins, &gt;=2 last changed wins)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rBrk50_CURX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0 800 1000 1200 1400 1600 1800 2000 2500 3000 3500 4000 4500 5000 5500 6000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rBrk50_CUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [50 50 50 50 50 50 50 50 50 50 50 50 50 50 50 50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage of engine brake torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SigTst_swtAccPed_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch of torque under test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SigTst_trqAccPed_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torque under test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rZero_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio of APP, below which the resulting fuel quantity should be zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPed_rThresPrp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold between overrun and propulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCPED_REVGEARMAP_SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seperate acceleration pedal map for the reverse gear present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTSHFT_SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mastershift functionality available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCPED_OVRRUNRMP_SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availibility of acceleration pedal overrun ramp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRQPRPHIGH_ZERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of 0 Nm in TrqPrpHigh resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACT_ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>V_kmph</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Ratio_100</t>
+  </si>
+  <si>
+    <t>Fac10</t>
+  </si>
+  <si>
+    <t>Fac10 for complete compensation (cutoff ramp)</t>
+  </si>
+  <si>
+    <t>System constant for Fac10 value 1 (computation method Fact)</t>
+  </si>
+  <si>
+    <t>[1 16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver demand without limit Nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +1017,320 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>255</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1384,182 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>255</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1612,84 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,46 +1741,475 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>120</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>255</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>120</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>255</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>120</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="6"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
@@ -726,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,6 +2272,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
